--- a/tut05/output/0501CS18.xlsx
+++ b/tut05/output/0501CS18.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C6" t="n">
-        <v>7.613636363636363</v>
+        <v>7.61</v>
       </c>
       <c r="D6" t="n">
-        <v>8.302325581395349</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.361702127659575</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.428571428571429</v>
+        <v>9.43</v>
       </c>
       <c r="G6" t="n">
-        <v>8.925000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="H6" t="n">
-        <v>9.390243902439025</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>9.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.551020408163265</v>
+        <v>7.55</v>
       </c>
       <c r="C8" t="n">
-        <v>7.580645161290323</v>
+        <v>7.58</v>
       </c>
       <c r="D8" t="n">
-        <v>7.808823529411764</v>
+        <v>7.81</v>
       </c>
       <c r="E8" t="n">
-        <v>7.950819672131147</v>
+        <v>7.95</v>
       </c>
       <c r="F8" t="n">
-        <v>8.226666666666667</v>
+        <v>8.23</v>
       </c>
       <c r="G8" t="n">
-        <v>8.332075471698113</v>
+        <v>8.33</v>
       </c>
       <c r="H8" t="n">
-        <v>8.473856209150327</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.580924855491329</v>
+        <v>8.58</v>
       </c>
     </row>
   </sheetData>
